--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>398781.0071068301</v>
+        <v>376293.3082743285</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914736</v>
+        <v>2629876.587221766</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19958284.28136534</v>
+        <v>19997574.02179435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4921780.869873128</v>
+        <v>4902171.467891438</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.13217237922859</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>0.790450447682262</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>38.87161743162455</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="X5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.13217237922859</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.13217237922859</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
-        <v>0.790450447682262</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>38.87161743162454</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="10">
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,16 +1503,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1543,16 +1543,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22.65313100102799</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I13" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H14" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1692,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>44.13217237922859</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G15" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H15" t="n">
-        <v>38.87161743162454</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22.65313100102799</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1853,52 +1853,52 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>38.87161743162455</v>
+      </c>
+      <c r="T17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="H17" t="n">
+      <c r="U17" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="I17" t="n">
-        <v>38.87161743162454</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>38.87161743162454</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2041,25 +2041,25 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>0.7904504476822691</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="R19" t="n">
+      <c r="U19" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="S19" t="n">
+      <c r="V19" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>126.358590200387</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>16.62553367015321</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,22 +2324,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2394,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>30.15308120692869</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2473,67 +2473,67 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2561,22 +2561,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4.922539820527361</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2752,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>202.2946864288972</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,19 +2877,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>39.08117332487345</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>11.35885523130661</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3035,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>48.57345760946043</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>41.80378145191544</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3269,67 +3269,67 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>81.00537765493296</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>28.14326276152196</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>203.6420085239814</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>33.80371536444976</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>55.26115413364287</v>
+        <v>78.2824374878337</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>196.3299576851941</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>195.0774194512722</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T44" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="46">
@@ -4138,16 +4138,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7904504476822691</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E46" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F46" t="n">
-        <v>44.13217237922859</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="G46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>3.530573790338288</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M2" t="n">
-        <v>45.45613755060546</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R2" t="n">
-        <v>131.9507376187037</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S2" t="n">
-        <v>131.9507376187037</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T2" t="n">
-        <v>131.9507376187037</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U2" t="n">
-        <v>131.9507376187037</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V2" t="n">
-        <v>92.68647758675968</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W2" t="n">
-        <v>48.10852568854899</v>
+        <v>108.260178376266</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>68.2764642733967</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.79483382228227</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>3.530573790338288</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M3" t="n">
-        <v>45.45613755060546</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N3" t="n">
-        <v>45.45613755060546</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T3" t="n">
-        <v>87.37278572049297</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U3" t="n">
-        <v>87.37278572049297</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V3" t="n">
-        <v>87.37278572049297</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W3" t="n">
-        <v>87.37278572049297</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X3" t="n">
-        <v>87.37278572049297</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y3" t="n">
-        <v>87.37278572049297</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H4" t="n">
-        <v>93.48491238239833</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I4" t="n">
-        <v>48.90696048418764</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J4" t="n">
-        <v>4.329008585976936</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.10852568854899</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L5" t="n">
-        <v>89.14698820604177</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M5" t="n">
-        <v>132.8378388614781</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W5" t="n">
-        <v>137.2644294849704</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X5" t="n">
-        <v>92.68647758675968</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.10852568854899</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>45.45613755060546</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
-        <v>45.45613755060546</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M6" t="n">
-        <v>89.14698820604177</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>137.2644294849704</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>92.68647758675968</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U6" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V6" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W6" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X6" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y6" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.48491238239833</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C7" t="n">
-        <v>93.48491238239833</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D7" t="n">
-        <v>93.48491238239833</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E7" t="n">
-        <v>93.48491238239833</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F7" t="n">
-        <v>93.48491238239833</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G7" t="n">
-        <v>48.90696048418764</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H7" t="n">
-        <v>4.329008585976936</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I7" t="n">
-        <v>4.329008585976936</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J7" t="n">
-        <v>4.329008585976936</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.60056303742164</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="C8" t="n">
-        <v>15.60056303742164</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="D8" t="n">
-        <v>15.60056303742164</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="E8" t="n">
-        <v>15.60056303742164</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="F8" t="n">
-        <v>15.60056303742164</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="G8" t="n">
-        <v>15.60056303742164</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H8" t="n">
-        <v>15.60056303742164</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="V8" t="n">
-        <v>149.3344187320537</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="W8" t="n">
-        <v>104.756466833843</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="X8" t="n">
-        <v>60.17851493563234</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.60056303742164</v>
+        <v>55.22041350689989</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M9" t="n">
-        <v>89.14698820604177</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W9" t="n">
-        <v>87.37278572049297</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X9" t="n">
-        <v>42.79483382228227</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M11" t="n">
-        <v>90.91227510121089</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N11" t="n">
-        <v>134.6031257566472</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T11" t="n">
-        <v>137.2644294849704</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U11" t="n">
-        <v>92.68647758675968</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V11" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W11" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X11" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y11" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.9507376187037</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="C12" t="n">
-        <v>131.9507376187037</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="D12" t="n">
-        <v>131.9507376187037</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="E12" t="n">
-        <v>87.37278572049297</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="F12" t="n">
-        <v>42.79483382228227</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>89.14698820604177</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M12" t="n">
-        <v>132.8378388614781</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T12" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U12" t="n">
-        <v>131.9507376187037</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="V12" t="n">
-        <v>131.9507376187037</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="W12" t="n">
-        <v>131.9507376187037</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="X12" t="n">
-        <v>131.9507376187037</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.9507376187037</v>
+        <v>3.920842809732961</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H13" t="n">
-        <v>115.1809137745201</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="I13" t="n">
-        <v>70.60296187630945</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C14" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D14" t="n">
-        <v>92.68647758675968</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E14" t="n">
-        <v>92.68647758675968</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F14" t="n">
-        <v>92.68647758675968</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G14" t="n">
-        <v>48.10852568854899</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N14" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X14" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E15" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F15" t="n">
-        <v>87.37278572049297</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G15" t="n">
-        <v>42.79483382228227</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M15" t="n">
-        <v>47.22142444577459</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N15" t="n">
-        <v>90.91227510121089</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O15" t="n">
-        <v>134.6031257566472</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H16" t="n">
-        <v>115.1809137745201</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I16" t="n">
-        <v>70.60296187630945</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F17" t="n">
-        <v>131.9507376187037</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G17" t="n">
-        <v>87.37278572049297</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H17" t="n">
-        <v>42.79483382228227</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I17" t="n">
         <v>3.530573790338288</v>
@@ -5516,16 +5516,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L17" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M17" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O17" t="n">
         <v>176.5286895169144</v>
@@ -5540,25 +5540,25 @@
         <v>176.5286895169144</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E18" t="n">
-        <v>131.9507376187037</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F18" t="n">
         <v>87.37278572049297</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79483382228227</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I18" t="n">
         <v>3.530573790338288</v>
@@ -5595,13 +5595,13 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L18" t="n">
-        <v>89.14698820604177</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14698820604177</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N18" t="n">
         <v>89.14698820604177</v>
@@ -5616,28 +5616,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="19">
@@ -5689,22 +5689,22 @@
         <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
+        <v>138.062864280609</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>138.062864280609</v>
+      </c>
+      <c r="R19" t="n">
         <v>137.2644294849704</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
+        <v>137.2644294849704</v>
+      </c>
+      <c r="T19" t="n">
         <v>92.68647758675968</v>
       </c>
-      <c r="R19" t="n">
+      <c r="U19" t="n">
         <v>48.10852568854899</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3.530573790338288</v>
       </c>
       <c r="V19" t="n">
         <v>3.530573790338288</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5835,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>470.4902185192667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>470.4902185192667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5926,34 +5926,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6026,13 +6026,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y23" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="X23" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>279.5233881080029</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C24" t="n">
-        <v>279.5233881080029</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D24" t="n">
-        <v>279.5233881080029</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E24" t="n">
-        <v>279.5233881080029</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F24" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>140.7925626906184</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>279.5233881080029</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="25">
@@ -6181,16 +6181,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E26" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>423.6420571908957</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>277.1074992177807</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>138.3766738003962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>25.00753820797557</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6400,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>178.0434248788474</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="C30" t="n">
-        <v>178.0434248788474</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="D30" t="n">
-        <v>178.0434248788474</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="E30" t="n">
-        <v>178.0434248788474</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F30" t="n">
-        <v>31.50886690573239</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6546,19 +6546,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>554.0190606638694</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y30" t="n">
-        <v>346.2587618989155</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6737,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>512.8480801015824</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="C33" t="n">
-        <v>512.8480801015824</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D33" t="n">
-        <v>463.7839815061678</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E33" t="n">
-        <v>304.5465265007123</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>921.8311136400146</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>748.4137690906834</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>546.2271744494494</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="Y33" t="n">
-        <v>512.8480801015824</v>
+        <v>318.0035561858384</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K34" t="n">
         <v>19.28114311021272</v>
@@ -6889,19 +6889,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>281.5846883638847</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="C36" t="n">
-        <v>281.5846883638847</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="D36" t="n">
-        <v>132.6502787026334</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="E36" t="n">
-        <v>132.6502787026334</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7047,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>281.5846883638847</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V36" t="n">
-        <v>281.5846883638847</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W36" t="n">
-        <v>281.5846883638847</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X36" t="n">
-        <v>281.5846883638847</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y36" t="n">
-        <v>281.5846883638847</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7129,16 +7129,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>752.9257720901863</v>
+      </c>
+      <c r="C38" t="n">
+        <v>752.9257720901863</v>
+      </c>
+      <c r="D38" t="n">
+        <v>752.9257720901863</v>
+      </c>
+      <c r="E38" t="n">
+        <v>752.9257720901863</v>
+      </c>
+      <c r="F38" t="n">
+        <v>718.7806050553886</v>
+      </c>
+      <c r="G38" t="n">
         <v>475.3318284112885</v>
-      </c>
-      <c r="C38" t="n">
-        <v>231.8830517671884</v>
-      </c>
-      <c r="D38" t="n">
-        <v>231.8830517671884</v>
-      </c>
-      <c r="E38" t="n">
-        <v>231.8830517671884</v>
-      </c>
-      <c r="F38" t="n">
-        <v>231.8830517671884</v>
-      </c>
-      <c r="G38" t="n">
-        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
         <v>231.8830517671884</v>
@@ -7199,25 +7199,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X38" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y38" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>279.5233881080029</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="C39" t="n">
-        <v>279.5233881080029</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="D39" t="n">
-        <v>279.5233881080029</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="E39" t="n">
-        <v>279.5233881080029</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="F39" t="n">
-        <v>279.5233881080029</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X39" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y39" t="n">
-        <v>279.5233881080029</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="40">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>508.6963464214224</v>
       </c>
       <c r="C41" t="n">
-        <v>749.627473042513</v>
+        <v>508.6963464214224</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>508.6963464214224</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>269.8418075726637</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>30.98726872390504</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>30.98726872390504</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>30.98726872390504</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>30.98726872390504</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>518.9837642353068</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>724.8382864425462</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>874.0332365851942</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>747.5508852701811</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>747.5508852701811</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>508.6963464214224</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>508.6963464214224</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>508.6963464214224</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>508.6963464214224</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>508.6963464214224</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>165.4518374499367</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>165.4518374499367</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>165.4518374499367</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>165.4518374499367</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>243.5599732640792</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>477.6613067897475</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>711.7626403154159</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>570.2600346505192</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>570.2600346505192</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>570.2600346505192</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>373.2121362148906</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>373.2121362148906</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>165.4518374499367</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>838.6458083585264</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>877.8338465507486</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>921.5246972061849</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>811.3316833508135</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.530573790338288</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C44" t="n">
-        <v>3.530573790338288</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D44" t="n">
-        <v>3.530573790338288</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E44" t="n">
-        <v>3.530573790338288</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F44" t="n">
-        <v>3.530573790338288</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L44" t="n">
-        <v>45.45613755060546</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M44" t="n">
-        <v>89.14698820604177</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N44" t="n">
-        <v>132.8378388614781</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O44" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P44" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.4370741486873</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>166.4370741486873</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S44" t="n">
-        <v>121.8591222504766</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T44" t="n">
-        <v>77.28117035226589</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U44" t="n">
-        <v>77.28117035226589</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V44" t="n">
-        <v>77.28117035226589</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W44" t="n">
-        <v>77.28117035226589</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X44" t="n">
-        <v>77.28117035226589</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y44" t="n">
-        <v>32.70321845405519</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L45" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M45" t="n">
-        <v>90.91227510121089</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N45" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O45" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P45" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S45" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T45" t="n">
-        <v>176.5286895169144</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U45" t="n">
-        <v>176.5286895169144</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V45" t="n">
-        <v>137.2644294849704</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W45" t="n">
-        <v>92.68647758675968</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X45" t="n">
-        <v>48.10852568854899</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>138.062864280609</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C46" t="n">
-        <v>138.062864280609</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="D46" t="n">
-        <v>137.2644294849704</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E46" t="n">
-        <v>92.68647758675968</v>
+        <v>13.245045875396</v>
       </c>
       <c r="F46" t="n">
-        <v>48.10852568854899</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G46" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T46" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U46" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V46" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W46" t="n">
-        <v>138.062864280609</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X46" t="n">
-        <v>138.062864280609</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.062864280609</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>278.1154692732874</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>180.1904932776592</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8383,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8456,16 +8456,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8620,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>272.4472657249869</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8784,10 +8784,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8857,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>278.1154692732874</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>176.3234617176304</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9094,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>262.4389053482807</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L17" t="n">
         <v>279.8985873492159</v>
@@ -9173,10 +9173,10 @@
         <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O18" t="n">
         <v>186.728416823673</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,7 +9720,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9729,13 +9729,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10194,7 +10194,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10206,10 +10206,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10443,10 +10443,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>349.0484638974528</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10905,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10920,7 +10920,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>303.7892960137443</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>365.4661916861949</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>367.8077055436044</v>
       </c>
       <c r="O42" t="n">
-        <v>185.8815939223662</v>
+        <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,19 +11300,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>278.1154692732874</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>274.4784056065013</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N44" t="n">
-        <v>273.5452359758195</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>274.2303838009153</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,16 +11379,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>182.6865521591028</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M45" t="n">
-        <v>186.2662063012469</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N45" t="n">
-        <v>173.6907663866335</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O45" t="n">
-        <v>186.728416823673</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -11464,7 +11464,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>357.8590620500362</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22589,10 +22589,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22604,13 +22604,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.8806410385104</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>133.8368815566912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>65.29235532465395</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22720,16 +22720,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>118.095000128211</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>21.47904137820059</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22784,13 +22784,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>310.3693512857885</v>
+        <v>314.3754898894238</v>
       </c>
       <c r="X5" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.4010112706387</v>
+        <v>131.6677048218782</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22911,13 +22911,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22939,7 +22939,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22954,19 +22954,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>118.095000128211</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
-        <v>21.47904137820059</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23021,7 +23021,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23063,31 +23063,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>210.1703593052995</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>300.8299303931229</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,10 +23100,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23160,13 +23160,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>207.562810781691</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X9" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.8110783456798</v>
+        <v>170.8172169493152</v>
       </c>
     </row>
     <row r="10">
@@ -23194,13 +23194,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>372.0105669137222</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23309,13 +23309,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>184.2242321325068</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23343,13 +23343,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>98.47189973158609</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23391,16 +23391,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>191.8224945792435</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23431,16 +23431,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5740415064116</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3183025480297</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>315.8114241890584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>372.0105669137222</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H14" t="n">
-        <v>295.3426297365386</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23580,19 +23580,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>100.9370400141553</v>
+        <v>110.2037335653947</v>
       </c>
       <c r="G15" t="n">
-        <v>93.21134478398204</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H15" t="n">
-        <v>73.36382680487192</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23668,13 +23668,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5740415064116</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>171.6042721387814</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23780,13 +23780,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23817,19 +23817,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>73.36382680487192</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,10 +23856,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23929,25 +23929,25 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>176.5029409294872</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,22 +23969,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,13 +24020,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,31 +24045,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>21.08647536425178</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>209.3158484108216</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>37.52545250819722</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24166,7 +24166,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,22 +24212,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,31 +24282,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>59.75548455249177</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>82.08236302956777</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24449,22 +24449,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,19 +24488,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>84.47409303088772</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24625,7 +24625,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,16 +24640,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
-        <v>115.8205630125936</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>146.9462822885158</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,19 +24765,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>118.5639071305275</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>125.984661931904</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24810,7 +24810,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24923,19 +24923,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4932414420988</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24999,13 +24999,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>98.87160795517832</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>58.35405270072769</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>57.07350359897357</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25099,7 +25099,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25157,25 +25157,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>325.8706680867785</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,13 +25199,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,7 +25236,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25245,16 +25245,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>109.2002544016887</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,10 +25287,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>22.29937355699337</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,13 +25400,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>373.0723303772617</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>367.9216046054329</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25482,13 +25482,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>82.08236302956777</v>
+        <v>59.06107967537693</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>145.4643766119907</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>170.4100522814404</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,19 +25676,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>12.69011190105127</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>14.87965944756544</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56.38340022020472</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,7 +25716,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25755,10 +25755,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,10 +25767,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>56.61756370964736</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>353.8529234464008</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25877,7 +25877,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>380.4372586871459</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,19 +25907,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8878972070167</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T44" t="n">
-        <v>178.9636771849028</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25944,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>193.9289697178007</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>161.5505233980758</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="46">
@@ -26026,16 +26026,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>147.8250225705301</v>
+        <v>109.0315960563718</v>
       </c>
       <c r="E46" t="n">
-        <v>102.3017902673406</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F46" t="n">
-        <v>101.2888756437027</v>
+        <v>135.443495661667</v>
       </c>
       <c r="G46" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358683.4735004299</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358683.47350043</v>
+        <v>355290.5609397931</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358683.4735004299</v>
+        <v>355290.5609397931</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358683.4735004299</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358683.4735004299</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358683.47350043</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498601.1074841411</v>
+        <v>495368.783772988</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>358683.4735004299</v>
+        <v>355290.5609397932</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>71053.6796537592</v>
+      </c>
+      <c r="C2" t="n">
+        <v>71053.67965375919</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71053.67965375919</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71053.67965375917</v>
+      </c>
+      <c r="F2" t="n">
+        <v>71053.67965375919</v>
+      </c>
+      <c r="G2" t="n">
         <v>71731.80321071926</v>
-      </c>
-      <c r="C2" t="n">
-        <v>71731.80321071926</v>
-      </c>
-      <c r="D2" t="n">
-        <v>71731.80321071924</v>
-      </c>
-      <c r="E2" t="n">
-        <v>71731.80321071924</v>
-      </c>
-      <c r="F2" t="n">
-        <v>71731.80321071921</v>
-      </c>
-      <c r="G2" t="n">
-        <v>71731.80321071927</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879936</v>
@@ -26338,22 +26338,22 @@
         <v>99696.40351879936</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="N2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879939</v>
+        <v>99050.37600907718</v>
       </c>
       <c r="P2" t="n">
-        <v>71731.80321071918</v>
+        <v>71053.67965375919</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
         <v>53120.56697032503</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999088</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9687.388527621029</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="C4" t="n">
-        <v>9687.388527621028</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="D4" t="n">
-        <v>9687.388527621028</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="E4" t="n">
-        <v>9687.388527621029</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="F4" t="n">
-        <v>9687.388527621028</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="G4" t="n">
-        <v>9687.388527621028</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>13660.85119937745</v>
+        <v>16801.53650439377</v>
       </c>
       <c r="P4" t="n">
-        <v>9687.388527621028</v>
+        <v>11897.85367509446</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
         <v>2683.236080657098</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
-        <v>2683.236080657098</v>
+        <v>2406.699719279908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10943.8725981969</v>
+        <v>9856.058660301926</v>
       </c>
       <c r="C6" t="n">
-        <v>25733.57860244113</v>
+        <v>23121.52625938482</v>
       </c>
       <c r="D6" t="n">
-        <v>25733.57860244111</v>
+        <v>23121.52625938482</v>
       </c>
       <c r="E6" t="n">
-        <v>59361.17860244111</v>
+        <v>56749.12625938481</v>
       </c>
       <c r="F6" t="n">
-        <v>59361.17860244108</v>
+        <v>56749.12625938482</v>
       </c>
       <c r="G6" t="n">
-        <v>59361.17860244114</v>
+        <v>55785.31907576995</v>
       </c>
       <c r="H6" t="n">
-        <v>18261.31658533521</v>
+        <v>15007.47814373182</v>
       </c>
       <c r="I6" t="n">
-        <v>71381.88355566026</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="J6" t="n">
-        <v>59834.96544566937</v>
+        <v>57771.16121025303</v>
       </c>
       <c r="K6" t="n">
-        <v>71381.88355566027</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="L6" t="n">
-        <v>71381.88355566027</v>
+        <v>68128.04511405683</v>
       </c>
       <c r="M6" t="n">
-        <v>71381.8835556603</v>
+        <v>68128.04511405689</v>
       </c>
       <c r="N6" t="n">
-        <v>71381.88355566024</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="O6" t="n">
-        <v>71381.88355566027</v>
+        <v>67871.70710229894</v>
       </c>
       <c r="P6" t="n">
-        <v>59361.17860244105</v>
+        <v>56749.12625938482</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
         <v>44.13217237922859</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
         <v>196.8821164984305</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922856</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
         <v>196.8821164984305</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330018</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330018</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34866,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>42.34905430330018</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35103,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35176,16 +35176,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330018</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35340,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>42.34905430330016</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
-        <v>42.34905430330018</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>42.34905430330016</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L17" t="n">
         <v>44.13217237922859</v>
@@ -35893,10 +35893,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="N18" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="L18" t="n">
-        <v>42.34905430330018</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>44.13217237922859</v>
@@ -36203,16 +36203,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36449,13 +36449,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36926,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37163,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>72.55630025847472</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>226.9118119063207</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="O42" t="n">
-        <v>43.28534947792182</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,19 +38020,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N44" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O44" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M45" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N45" t="n">
-        <v>42.34905430330019</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O45" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376293.3082743285</v>
+        <v>373007.8661325563</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179435</v>
+        <v>19492207.60956402</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902171.467891438</v>
+        <v>5117581.913230948</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -701,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -826,22 +828,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
-        <v>27.29193749722201</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D9" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="10">
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.29193749722201</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1543,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>39.58387696184059</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1746,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="16">
@@ -1780,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>27.29193749722201</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1856,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1920,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>115.5785074418532</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1938,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,64 +2083,64 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="F20" t="n">
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2160,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>126.358590200387</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>48.48515950437164</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2220,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,67 +2326,67 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>85.31372784089211</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>186.3643254376051</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,31 +2554,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2646,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>8.060861148105174</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>39.08117332487345</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2928,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>4.586460976949843</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.80378145191544</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3211,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>28.14326276152196</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,10 +3401,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>203.6420085239814</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,64 +3514,64 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>78.2824374878337</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>49.83391806126798</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3746,22 +3748,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>196.3299576851941</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3828,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>195.0774194512722</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>127.3936295135598</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4019,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>39.58387696184059</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4056,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>106.8110878221261</v>
       </c>
     </row>
     <row r="46">
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.977552361264268</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>148.2438924791353</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S2" t="n">
-        <v>148.2438924791353</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T2" t="n">
-        <v>148.2438924791353</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U2" t="n">
-        <v>148.2438924791353</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V2" t="n">
-        <v>148.2438924791353</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W2" t="n">
-        <v>108.260178376266</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X2" t="n">
-        <v>68.2764642733967</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y2" t="n">
-        <v>68.2764642733967</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>43.15042425981653</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W3" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X3" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C5" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W5" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X5" t="n">
-        <v>123.1178524655551</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y5" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6285745504463</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.22041350689989</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>68.2764642733967</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>55.22041350689989</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>55.22041350689989</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>55.22041350689989</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>55.22041350689989</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X8" t="n">
-        <v>55.22041350689989</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y8" t="n">
-        <v>55.22041350689989</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.13413836268582</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C9" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N9" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W9" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X9" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y9" t="n">
-        <v>83.13413836268582</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C11" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D11" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E11" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F11" t="n">
-        <v>123.1178524655551</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G11" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N11" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.920842809732961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C12" t="n">
-        <v>3.920842809732961</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D12" t="n">
-        <v>3.920842809732961</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O12" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>123.8719851183408</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>83.88827101547153</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W12" t="n">
-        <v>43.90455691260225</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X12" t="n">
-        <v>3.920842809732961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.920842809732961</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H13" t="n">
-        <v>93.21247408113457</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I13" t="n">
-        <v>53.22875997826529</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J13" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X14" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y14" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O15" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F16" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1961881840039</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U16" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V16" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W16" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.10852568854899</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C17" t="n">
-        <v>48.10852568854899</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D17" t="n">
-        <v>48.10852568854899</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E17" t="n">
-        <v>48.10852568854899</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>48.10852568854899</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>48.10852568854899</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>48.10852568854899</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.10852568854899</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.37278572049297</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C18" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>48.10852568854899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>87.37278572049297</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X18" t="n">
-        <v>87.37278572049297</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y18" t="n">
-        <v>87.37278572049297</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>795.8418184905681</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C21" t="n">
-        <v>795.8418184905681</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5841,10 +5843,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="22">
@@ -5935,19 +5937,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>588.0815197256143</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C24" t="n">
-        <v>413.6284904444873</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D24" t="n">
-        <v>264.694080783236</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E24" t="n">
-        <v>105.4566257777805</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>573.6237674980839</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>365.7722672925511</v>
       </c>
       <c r="Y24" t="n">
-        <v>756.2968567456824</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="25">
@@ -6175,10 +6177,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>928.2922408909005</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>726.1056462496665</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>479.1414028849718</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>479.1414028849718</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>479.1414028849718</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>479.1414028849718</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
     </row>
     <row r="28">
@@ -6406,10 +6408,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6576,16 +6578,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X30" t="n">
-        <v>756.2056553051034</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y30" t="n">
-        <v>548.4453565401495</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>318.0035561858384</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C33" t="n">
-        <v>318.0035561858384</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="D33" t="n">
-        <v>318.0035561858384</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="E33" t="n">
-        <v>158.7661011803829</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F33" t="n">
-        <v>158.7661011803829</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>921.8311136400146</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>748.4137690906834</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>546.2271744494494</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>318.0035561858384</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>318.0035561858384</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>318.0035561858384</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>318.0035561858384</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y33" t="n">
-        <v>318.0035561858384</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="34">
@@ -6838,25 +6840,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>252.1315786412141</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C36" t="n">
-        <v>252.1315786412141</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D36" t="n">
-        <v>252.1315786412141</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E36" t="n">
-        <v>252.1315786412141</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F36" t="n">
-        <v>252.1315786412141</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7049,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="V36" t="n">
-        <v>252.1315786412141</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="W36" t="n">
-        <v>252.1315786412141</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="X36" t="n">
-        <v>252.1315786412141</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="Y36" t="n">
-        <v>252.1315786412141</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="37">
@@ -7072,22 +7074,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>752.9257720901863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>752.9257720901863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
-        <v>752.9257720901863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>212.4775805350491</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C39" t="n">
-        <v>212.4775805350491</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="D39" t="n">
-        <v>212.4775805350491</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="E39" t="n">
-        <v>212.4775805350491</v>
+        <v>322.4725277437814</v>
       </c>
       <c r="F39" t="n">
-        <v>212.4775805350491</v>
+        <v>322.4725277437814</v>
       </c>
       <c r="G39" t="n">
-        <v>133.4044113554191</v>
+        <v>183.7417023263969</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>70.3725667339762</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W39" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X39" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y39" t="n">
-        <v>380.6929175551172</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="40">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>508.6963464214224</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>508.6963464214224</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>508.6963464214224</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>269.8418075726637</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>30.98726872390504</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>30.98726872390504</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
-        <v>30.98726872390504</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>30.98726872390504</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0332365851942</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>747.5508852701811</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>747.5508852701811</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>508.6963464214224</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V41" t="n">
-        <v>508.6963464214224</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>508.6963464214224</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>508.6963464214224</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>508.6963464214224</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.4518374499367</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C42" t="n">
-        <v>165.4518374499367</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D42" t="n">
-        <v>165.4518374499367</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E42" t="n">
-        <v>165.4518374499367</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>243.5599732640792</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>477.6613067897475</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>711.7626403154159</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O42" t="n">
-        <v>945.8639738410842</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>772.4466292917531</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>570.2600346505192</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>570.2600346505192</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>570.2600346505192</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W42" t="n">
-        <v>373.2121362148906</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X42" t="n">
-        <v>373.2121362148906</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="Y42" t="n">
-        <v>165.4518374499367</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>838.6458083585264</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>877.8338465507486</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>921.5246972061849</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>811.3316833508135</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38.38436553875449</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C44" t="n">
-        <v>38.38436553875449</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D44" t="n">
-        <v>38.38436553875449</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E44" t="n">
-        <v>38.38436553875449</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F44" t="n">
-        <v>38.38436553875449</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>3.166710156947247</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>40.77139327069581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>79.95943146291799</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>118.3517937444931</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>78.36807964162378</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>38.38436553875449</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V44" t="n">
-        <v>38.38436553875449</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W44" t="n">
-        <v>38.38436553875449</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X44" t="n">
-        <v>38.38436553875449</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y44" t="n">
-        <v>38.38436553875449</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43.15042425981653</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>42.35474834916943</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>81.54278654139161</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>119.1474696551402</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>158.3355078473624</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>83.13413836268582</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>83.13413836268582</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>83.13413836268582</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>83.13413836268582</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>83.13413836268582</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>43.15042425981653</v>
+        <v>612.718391167419</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>53.22875997826529</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>13.245045875396</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>180.1185623197441</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>268.0827398194126</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8784,10 +8786,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>171.9589358120561</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9489,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>303.7892960137443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>365.4661916861949</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>268.3307616249986</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>169.3262404810591</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>357.8590620500362</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22589,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>65.29235532465395</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22714,22 +22716,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H4" t="n">
-        <v>134.9352350102176</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22784,13 +22786,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>326.401274339383</v>
       </c>
       <c r="D5" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W5" t="n">
-        <v>314.3754898894238</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.6677048218782</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C6" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22923,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22957,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.47904137820059</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="8">
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>325.689014809167</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23042,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>210.1703593052995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>310.3693512857885</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23100,10 +23102,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>133.1246220264752</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D9" t="n">
-        <v>107.8611886027982</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23148,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23160,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>170.8172169493152</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="10">
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9352350102176</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>21.47904137820059</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>372.0105669137222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.7188605532945</v>
+        <v>376.4311200835105</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="12">
@@ -23337,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,22 +23387,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>191.8224945792435</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>166.1891082416369</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23431,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>122.643295545599</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>372.0105669137222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="15">
@@ -23574,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23583,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23634,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="16">
@@ -23668,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>134.9352350102176</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>170.1484521546208</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>57.12999154646258</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23826,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23871,13 +23873,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23935,19 +23937,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>176.5029409294872</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0054709445994</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24020,13 +24022,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24048,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>21.08647536425178</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>40.91147334704344</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24108,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,10 +24256,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>59.75548455249177</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24336,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,10 +24347,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>65.33065772331452</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,31 +24442,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>174.4700052756681</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24494,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24534,10 +24536,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>217.8805209328696</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24646,13 +24648,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,22 +24767,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>118.5639071305275</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24816,10 +24818,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24923,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,10 +24934,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25002,22 +25004,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>153.0586194784511</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>58.35405270072769</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.07350359897357</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25099,7 +25101,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25157,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,13 +25168,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,7 +25238,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25245,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>109.2002544016887</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,10 +25289,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>22.29937355699337</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>373.0723303772617</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>59.06107967537693</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>39.5627147901471</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25634,22 +25636,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>145.4643766119907</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>170.4100522814404</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>12.69011190105127</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.87965944756544</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25716,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25725,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>56.61756370964736</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>78.37935568991772</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>380.4372586871459</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>183.5119726022908</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25944,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>165.2992498668324</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>98.87160795517831</v>
       </c>
     </row>
     <row r="46">
@@ -26026,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>135.443495661667</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495368.783772988</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355290.5609397932</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71053.6796537592</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="C2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071918</v>
       </c>
       <c r="D2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071926</v>
       </c>
       <c r="E2" t="n">
-        <v>71053.67965375917</v>
+        <v>71731.80321071926</v>
       </c>
       <c r="F2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071924</v>
       </c>
       <c r="G2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879937</v>
@@ -26338,22 +26340,22 @@
         <v>99696.40351879936</v>
       </c>
       <c r="K2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>99696.40351879934</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="N2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99050.37600907718</v>
-      </c>
       <c r="P2" t="n">
-        <v>71053.67965375919</v>
+        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
         <v>16914.68964098084</v>
@@ -26454,10 +26456,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16801.53650439377</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>11897.85367509446</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9856.058660301926</v>
+        <v>8614.632621000448</v>
       </c>
       <c r="C6" t="n">
-        <v>23121.52625938482</v>
+        <v>23404.33862524467</v>
       </c>
       <c r="D6" t="n">
-        <v>23121.52625938482</v>
+        <v>23404.33862524474</v>
       </c>
       <c r="E6" t="n">
-        <v>56749.12625938481</v>
+        <v>57031.93862524474</v>
       </c>
       <c r="F6" t="n">
-        <v>56749.12625938482</v>
+        <v>57031.93862524472</v>
       </c>
       <c r="G6" t="n">
-        <v>55785.31907576995</v>
+        <v>14165.61021358456</v>
       </c>
       <c r="H6" t="n">
-        <v>15007.47814373182</v>
+        <v>68128.04511405683</v>
       </c>
       <c r="I6" t="n">
         <v>68128.04511405686</v>
       </c>
       <c r="J6" t="n">
-        <v>57771.16121025303</v>
+        <v>56581.12700406596</v>
       </c>
       <c r="K6" t="n">
+        <v>68128.04511405685</v>
+      </c>
+      <c r="L6" t="n">
         <v>68128.04511405686</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>68128.04511405683</v>
       </c>
-      <c r="M6" t="n">
-        <v>68128.04511405689</v>
-      </c>
       <c r="N6" t="n">
-        <v>68128.04511405685</v>
+        <v>68128.04511405683</v>
       </c>
       <c r="O6" t="n">
-        <v>67871.70710229894</v>
+        <v>20748.1668965931</v>
       </c>
       <c r="P6" t="n">
-        <v>56749.12625938482</v>
+        <v>68128.04511405688</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N9" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.8112771299739</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>72.55630025847472</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>226.9118119063207</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>37.98452839772582</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>37.98452839772582</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373007.8661325563</v>
+        <v>265986.6043831858</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956402</v>
+        <v>18548951.26311751</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117581.913230948</v>
+        <v>5632134.57504266</v>
       </c>
     </row>
     <row r="11">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="H4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>44.13217237922859</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>38.87161743162455</v>
+        <v>139.3862711508161</v>
       </c>
       <c r="X6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>20.57803454274981</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>44.13217237922859</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>38.87161743162455</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>44.13217237922859</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>38.87161743162454</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>221.657517797207</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>115.5785074418532</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1937,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>33.93991708044859</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>27.99566753459384</v>
       </c>
       <c r="I21" t="n">
-        <v>48.48515950437164</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2326,64 +2326,64 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>186.3643254376051</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>208.2638363878124</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>8.060861148105174</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>126.2480181108248</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>164.8304714084692</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3046,55 +3046,55 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I32" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>146.9525391092905</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>4.586460976949843</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>203.6420085239814</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3505,14 +3505,14 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
@@ -3523,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>49.83391806126798</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3784,22 +3784,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V41" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>127.3936295135598</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="43">
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,10 +4067,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>18.617696580776</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>106.8110878221261</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4146,49 +4146,49 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6031257566472</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>176.5286895169144</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>131.9507376187037</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>87.37278572049297</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>42.79483382228227</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>42.79483382228227</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="V2" t="n">
-        <v>42.79483382228227</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W2" t="n">
-        <v>42.79483382228227</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X2" t="n">
-        <v>42.79483382228227</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.37278572049297</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C3" t="n">
-        <v>42.79483382228227</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>45.45613755060546</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N3" t="n">
-        <v>45.45613755060546</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>131.9507376187037</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9507376187037</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
-        <v>131.9507376187037</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="V3" t="n">
-        <v>131.9507376187037</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="W3" t="n">
-        <v>131.9507376187037</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X3" t="n">
-        <v>131.9507376187037</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.9507376187037</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="F4" t="n">
-        <v>93.48491238239833</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="G4" t="n">
-        <v>48.90696048418764</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>4.329008585976936</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>131.9507376187037</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>131.9507376187037</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>87.37278572049297</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>132.8378388614781</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>132.8378388614781</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>137.2644294849704</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="X6" t="n">
-        <v>92.68647758675968</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="Y6" t="n">
-        <v>48.10852568854899</v>
+        <v>588.1108339952409</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.10852568854899</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>137.2644294849704</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>92.68647758675968</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.10852568854899</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.37278572049297</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="C9" t="n">
-        <v>42.79483382228227</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>89.14698820604177</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>131.9507376187037</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>131.9507376187037</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>131.9507376187037</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X9" t="n">
-        <v>131.9507376187037</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y9" t="n">
-        <v>87.37278572049297</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>131.9507376187037</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>87.37278572049297</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>92.68647758675968</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>48.10852568854899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>48.10852568854899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>131.9507376187037</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>131.9507376187037</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>131.9507376187037</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>92.68647758675968</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y12" t="n">
-        <v>92.68647758675968</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.10852568854899</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>87.37278572049297</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.10852568854899</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42.79483382228227</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>90.91227510121089</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>131.9507376187037</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="V15" t="n">
-        <v>131.9507376187037</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="W15" t="n">
-        <v>87.37278572049297</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="X15" t="n">
-        <v>87.37278572049297</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="Y15" t="n">
-        <v>42.79483382228227</v>
+        <v>638.9911434400805</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C17" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y17" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>136.7812428759814</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>512.7568786610034</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y18" t="n">
-        <v>304.9965798960495</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="19">
@@ -5709,7 +5709,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>243.4632136343998</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="C21" t="n">
-        <v>69.01018435327282</v>
+        <v>286.7936339694528</v>
       </c>
       <c r="D21" t="n">
-        <v>69.01018435327282</v>
+        <v>137.8592243082015</v>
       </c>
       <c r="E21" t="n">
-        <v>69.01018435327282</v>
+        <v>137.8592243082015</v>
       </c>
       <c r="F21" t="n">
-        <v>69.01018435327282</v>
+        <v>137.8592243082015</v>
       </c>
       <c r="G21" t="n">
-        <v>69.01018435327282</v>
+        <v>137.8592243082015</v>
       </c>
       <c r="H21" t="n">
-        <v>69.01018435327282</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W21" t="n">
-        <v>619.4388494194218</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X21" t="n">
-        <v>619.4388494194218</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y21" t="n">
-        <v>411.6785506544679</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5937,25 +5937,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>573.6237674980839</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>365.7722672925511</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6177,13 +6177,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>728.6161971483371</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>479.1414028849718</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>479.1414028849718</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W27" t="n">
-        <v>479.1414028849718</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>479.1414028849718</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6414,10 +6414,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V29" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>846.5570557448675</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W30" t="n">
-        <v>603.1082791007675</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X30" t="n">
-        <v>395.2567788952347</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>187.4964801302808</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>512.8480801015824</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C33" t="n">
-        <v>512.8480801015824</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D33" t="n">
-        <v>512.8480801015824</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
-        <v>508.2152912359765</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6782,16 +6782,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y33" t="n">
-        <v>512.8480801015824</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
         <v>19.28114311021272</v>
@@ -6879,31 +6879,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7022,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>281.5846883638847</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>281.5846883638847</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>281.5846883638847</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7083,13 +7083,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>322.4725277437814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>322.4725277437814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>183.7417023263969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>70.3725667339762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7365,10 +7365,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7402,7 +7402,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7432,19 +7432,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V41" t="n">
         <v>262.7299197543128</v>
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7496,16 +7496,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>446.0215048700907</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>317.3410710180102</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>577.2332497330343</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U44" t="n">
-        <v>577.2332497330343</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V44" t="n">
-        <v>577.2332497330343</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W44" t="n">
-        <v>577.2332497330343</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X44" t="n">
-        <v>577.2332497330343</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y44" t="n">
-        <v>333.7844730889342</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>612.718391167419</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C45" t="n">
-        <v>612.718391167419</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D45" t="n">
-        <v>463.7839815061678</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E45" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
         <v>19.28114311021272</v>
@@ -7739,13 +7739,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>945.2514013886403</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>743.0648067474062</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>743.0648067474062</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>743.0648067474062</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>743.0648067474062</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>535.2133065418734</v>
       </c>
       <c r="Y45" t="n">
-        <v>612.718391167419</v>
+        <v>327.4530077769195</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7836,22 +7836,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7621178998911</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8066,19 +8066,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>184.4830882253185</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>184.4830882253185</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,10 +9722,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9734,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,7 +10442,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11144,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11387,7 +11387,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22594,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>204.2118173558728</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>316.2185716685193</v>
       </c>
       <c r="Y2" t="n">
-        <v>347.366321224429</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>108.5734481330142</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22676,16 +22676,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>185.6667515974615</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22707,25 +22707,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7342920886781</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>92.92143363661941</v>
       </c>
       <c r="F4" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>123.8588069792302</v>
+        <v>141.8290697929902</v>
       </c>
       <c r="H4" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>154.660024479576</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>326.401274339383</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22831,7 +22831,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22843,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>283.6200860909063</v>
+        <v>265.3359907678426</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>325.5989282992405</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>212.8233657292951</v>
+        <v>112.3087120101035</v>
       </c>
       <c r="X6" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22953,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.47904137820059</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,16 +23023,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>310.3693512857885</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>108.5734481330142</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>124.4911778506341</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,16 +23150,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>161.5505233980758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>21.47904137820059</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>376.4311200835105</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,7 +23305,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,7 +23314,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>188.9293852055442</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C12" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>166.9013677718529</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23433,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>325.5989282992405</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.366321224429</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>133.8368815566912</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>4.283864283767798</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23670,10 +23670,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>154.660024479576</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23706,10 +23706,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>183.8134170490529</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U16" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>57.12999154646258</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23825,16 +23825,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>103.403600082762</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23949,10 +23949,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24016,13 +24016,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24065,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>84.23977670190263</v>
       </c>
       <c r="I21" t="n">
-        <v>40.91147334704344</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24253,25 +24253,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>219.8305335069347</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>268.906261701593</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24299,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>16.1006142106236</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>65.33065772331452</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>174.4700052756681</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24536,10 +24536,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>217.8805209328696</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>125.4469650500948</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24742,7 +24742,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>264.8211809382518</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>40.9425137950083</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24934,10 +24934,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24967,22 +24967,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>207.2105735132092</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>25.75595987902526</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>153.0586194784511</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25046,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25058,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25119,10 +25119,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25207,16 +25207,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>171.0109458920165</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25238,7 +25238,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25250,7 +25250,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>22.29937355699337</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25393,13 +25393,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25411,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25444,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25478,22 +25478,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>39.5627147901471</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25642,10 +25642,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,22 +25672,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V41" t="n">
-        <v>97.54843351316518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25727,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>78.37935568991772</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="43">
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>270.4049153562469</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>140.1318817691307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25909,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25994,10 +25994,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>153.0654745230618</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26006,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>98.87160795517831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26076,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358683.4735004298</v>
+        <v>365349.7839253503</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71731.8032107192</v>
+        <v>73064.16355197683</v>
       </c>
       <c r="C2" t="n">
-        <v>71731.80321071918</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="D2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="E2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="F2" t="n">
-        <v>71731.80321071924</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879934</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="J2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="K2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.4035187993</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="L2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879934</v>
-      </c>
       <c r="N2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="O2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12016.62850481742</v>
+        <v>12249.99434359158</v>
       </c>
       <c r="C4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8614.632621000448</v>
+        <v>-8437.635765430092</v>
       </c>
       <c r="C6" t="n">
-        <v>23404.33862524467</v>
+        <v>-38293.8876926517</v>
       </c>
       <c r="D6" t="n">
-        <v>23404.33862524474</v>
+        <v>22282.43449401641</v>
       </c>
       <c r="E6" t="n">
-        <v>57031.93862524474</v>
+        <v>55910.03449401642</v>
       </c>
       <c r="F6" t="n">
-        <v>57031.93862524472</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="G6" t="n">
-        <v>14165.61021358456</v>
+        <v>55910.03449401639</v>
       </c>
       <c r="H6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.03449401637</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="J6" t="n">
-        <v>56581.12700406596</v>
+        <v>41908.8023537371</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405685</v>
+        <v>7653.081560383789</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401633</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="N6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.03449401644</v>
       </c>
       <c r="O6" t="n">
-        <v>20748.1668965931</v>
+        <v>55910.03449401642</v>
       </c>
       <c r="P6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.0344940164</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>42.34905430330016</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330018</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>42.34905430330018</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>42.34905430330018</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36454,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,7 +37162,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
